--- a/data/trans_dic/IP19C06-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP19C06-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,55</t>
+          <t>0,0; 10,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,42</t>
+          <t>0,0; 10,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,71</t>
+          <t>0,0; 9,71</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,51</t>
+          <t>0,0; 6,41</t>
         </is>
       </c>
     </row>
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,93</t>
+          <t>0,0; 1,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,06</t>
+          <t>0,0; 2,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,7</t>
+          <t>0,0; 1,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,37 +889,37 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,15</t>
+          <t>0,5; 3,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,69</t>
+          <t>0,0; 1,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,84</t>
+          <t>0,16; 1,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,65</t>
+          <t>0,0; 0,53</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,98</t>
+          <t>0,48; 2,12</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,92</t>
+          <t>0,0; 1,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,26</t>
+          <t>0,1; 1,14</t>
         </is>
       </c>
     </row>
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,82</t>
+          <t>0,0; 4,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,33</t>
+          <t>0,0; 4,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,23</t>
+          <t>0,0; 3,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 8,37</t>
+          <t>1,21; 7,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,61</t>
+          <t>0,0; 2,55</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,19</t>
+          <t>0,0; 2,98</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 4,01</t>
+          <t>0,65; 3,59</t>
         </is>
       </c>
     </row>
@@ -1144,22 +1144,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,1</t>
+          <t>0,0; 1,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,61</t>
+          <t>0,17; 1,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,14</t>
+          <t>0,0; 1,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,46</t>
+          <t>0,0; 1,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,37 +1169,37 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,11</t>
+          <t>0,32; 2,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,2</t>
+          <t>0,0; 1,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,77</t>
+          <t>0,74; 2,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,66</t>
+          <t>0,0; 0,56</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,34</t>
+          <t>0,34; 1,53</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,76</t>
+          <t>0,0; 0,68</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,53</t>
+          <t>0,46; 1,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C06-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP19C06-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -666,32 +666,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2,5%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>2,49%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,35%</t>
         </is>
       </c>
     </row>
@@ -724,44 +724,44 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0; 2,7</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0; 2,74</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0; 5,61</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 12,06</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>0; 2,95</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>0; 3,19</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 10,95</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 10,39</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>0; 5,96</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0; 2,7</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0; 2,74</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0; 5,61</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 10,92</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
           <t>0; 1,42</t>
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,71</t>
+          <t>0,0; 7,04</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,41</t>
+          <t>0,0; 6,22</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1,46%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0,55%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0,63%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>0,21%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>0,61%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,34%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>1,46%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,51%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,07</t>
+          <t>0; 0,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,21</t>
+          <t>0,58; 3,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>0,0; 1,82</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0,16; 1,85</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,08</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,93</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
           <t>0; 0,55</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,67</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,56</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,5; 3,11</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,94</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,9</t>
+          <t>0,0; 2,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,53</t>
+          <t>0,0; 0,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,12</t>
+          <t>0,44; 2,15</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,0</t>
+          <t>0,0; 0,94</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,1; 1,14</t>
+          <t>0,12; 1,32</t>
         </is>
       </c>
     </row>
@@ -936,34 +936,34 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3,36%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>0,95%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>0,9%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,65%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>1,87%</t>
         </is>
       </c>
     </row>
@@ -1004,52 +1004,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,08</t>
+          <t>0; 1,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,55</t>
+          <t>0; 1,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>0; 1,53</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1,18; 7,47</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,76</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,84</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
           <t>0; 1,55</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,85</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,74</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,58</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,53</t>
-        </is>
-      </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 7,65</t>
+          <t>0,0; 4,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,55</t>
+          <t>0,0; 2,35</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,98</t>
+          <t>0,0; 2,44</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,59</t>
+          <t>0,76; 4,22</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,91%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0,38%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1,47%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>0,34%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>0,61%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>0,19%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,41%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,91%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,38%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,93%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,25</t>
+          <t>0; 0,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,67</t>
+          <t>0,32; 2,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,03</t>
+          <t>0,0; 1,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,44</t>
+          <t>0,73; 2,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,0; 1,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,04</t>
+          <t>0,17; 1,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,36</t>
+          <t>0,0; 0,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,84</t>
+          <t>0,0; 1,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,56</t>
+          <t>0,0; 0,62</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,53</t>
+          <t>0,34; 1,38</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,68</t>
+          <t>0,0; 0,76</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,61</t>
+          <t>0,44; 1,59</t>
         </is>
       </c>
     </row>
